--- a/results/סטטוס כניסות.xlsx
+++ b/results/סטטוס כניסות.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nofshonitjmeterci\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F2B154-37AD-4C9C-8302-BF8554A0D3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A81785B-0E97-4353-BE77-490A1FE85A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="855" windowWidth="23385" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="סטטוס באגים" sheetId="10" r:id="rId1"/>
+    <sheet name="סטטוס באגים 27.10.19" sheetId="12" r:id="rId1"/>
+    <sheet name="סטטוס באגים" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>בקשה</t>
   </si>
@@ -108,6 +109,31 @@
   </si>
   <si>
     <t xml:space="preserve">30 דקות  </t>
+  </si>
+  <si>
+    <t>חווית משתמש ראשונה</t>
+  </si>
+  <si>
+    <t>כניסה לדף ההטבה ניסים המליק</t>
+  </si>
+  <si>
+    <t>שתי דקות</t>
+  </si>
+  <si>
+    <t>הרשמה לאתר נופשונית(לאחר הגעה לדך ההטבה)</t>
+  </si>
+  <si>
+    <t>רכישת ההטבה המבוקשת(בוקר של כיף)</t>
+  </si>
+  <si>
+    <t>הרשמת לאתר של המקבל + קבלת המתנות בדף הבית</t>
+  </si>
+  <si>
+    <t>סיכום קצר:
+כניסה לאתר נופשונית מייצג משתמשים אשר נוצרו כדי לטייל באתר הבית על ידי כניסה לדף הבית + סיור במתנות משפחה וחברים ובסוף התהליף הם יכנסו לדף ההטבה אותו ירצו לרכוש,סכהכול במקביל רצים כ 100 משתמשים אשר נכנסים לאתר כ400 פעמים ומבצעים את רצף הפעולות
+2.הרשמה לאתר נופשונית,כדי לדמה תרחיש ריאלי ראשון,40% מן המשמתשים אשר נכנסים לאתר ולהטבה מבצעים הרשמה + ולידציה במייל,מתוך 100 משתמשים הרצים באתר 150 הרשמות בוצעו עם נתונים רנדומליים
+3.רכישת ההטבה:כ 30% מן המשתמשים שלנו ביצעו רכישה של הווריאנט בוקר של כיף,הרכישה מתבצעת אחרי שהם הגיעו לדף ההטבה, את ההטבה הם רכשו עבור משתמש אשר אינו קיים במערכת
+4.בסוף התהליך,המשתמש אשר אליו נרכשו המתנות מבצע הרשמה למערכת ומביט במתנות אותם רכש</t>
   </si>
 </sst>
 </file>
@@ -168,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,13 +232,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -243,6 +280,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -525,11 +568,730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D897DFE-89A3-4D39-90EA-0585279BB9C7}">
+  <dimension ref="A1:H185"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>400</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>142423</v>
+      </c>
+      <c r="E4">
+        <v>142423</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>177337</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>400</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>5947</v>
+      </c>
+      <c r="E5">
+        <v>9457</v>
+      </c>
+      <c r="F5">
+        <v>2184</v>
+      </c>
+      <c r="G5">
+        <v>9734</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2">
+        <v>150</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>139851</v>
+      </c>
+      <c r="E6" s="9">
+        <v>125879</v>
+      </c>
+      <c r="F6" s="9">
+        <v>124868</v>
+      </c>
+      <c r="G6" s="9">
+        <v>183380</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>141148</v>
+      </c>
+      <c r="E7" s="1">
+        <v>156549</v>
+      </c>
+      <c r="F7" s="1">
+        <v>122819</v>
+      </c>
+      <c r="G7" s="1">
+        <v>160205</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10473</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10473</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10473</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10473</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694EFCE9-1D95-4DCF-9C47-580B5FE55D85}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1857,7 @@
         <v>50</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:H32" si="1">SUM(D26:D31)</f>
+        <f t="shared" ref="D32:G32" si="1">SUM(D26:D31)</f>
         <v>142190</v>
       </c>
       <c r="E32" s="1">
